--- a/biology/Histoire de la zoologie et de la botanique/Władysław_Kulczyński/Władysław_Kulczyński.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Władysław_Kulczyński/Władysław_Kulczyński.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>W%C5%82adys%C5%82aw_Kulczy%C5%84ski</t>
+          <t>Władysław_Kulczyński</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Władysław Kulczyński est un zoologiste polonais, né le 27 mars 1854 à Cracovie et mort le 9 décembre 1919 dans la même ville. Né au sein d'une famille bourgeoise, son père, Léon, tenait un restaurant privé pour étudiants et cols blancs. Sa mère, dénommée Joanna, était née Frech. Il eut quatre sœurs et quatre frères, dont Léon (1847-1932, enseignant, directeur du lycée Sainte-Anne, chargé de cours à l'université jagellonne, Jan (médecin), Franciszek (avocat) et Józef (commerçant). Il eut deux fils, Stanisław (1895-1975), botaniste, militant politique et d'État et Władysław (1890-1923), alpiniste.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>W%C5%82adys%C5%82aw_Kulczy%C5%84ski</t>
+          <t>Władysław_Kulczyński</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après ses études qu’il suit à Cracovie, il devient professeur en 1878 à l’université de la ville, fonction qu’il conserve jusqu’en 1910.
 Il est l’auteur d’importants travaux sur les arachnides de son pays mais aussi d’Europe et d’ailleurs.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>W%C5%82adys%C5%82aw_Kulczy%C5%84ski</t>
+          <t>Władysław_Kulczyński</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Notices d'autorité : VIAF ISNI IdRef LCCN GND Pays-Bas Pologne NUKAT Suède WorldCat 
 Pierre Bonnet (1945). Bibliographia araneorum, Les frères Doularoude (Toulouse).
